--- a/database/industries/felezat/fameli/product/yearly_seprated.xlsx
+++ b/database/industries/felezat/fameli/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fameli\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fameli\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57806A6C-9ABB-4D86-B477-883DC2F9DBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EB3FE8-BED1-40A5-9442-FA3B8677D16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -703,12 +703,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -718,7 +718,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,7 +730,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -742,7 +742,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -752,7 +752,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -764,7 +764,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -776,7 +776,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -786,7 +786,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -808,7 +808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -818,7 +818,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -830,7 +830,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -854,7 +854,7 @@
         <v>140570</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -878,7 +878,7 @@
         <v>6223</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -902,7 +902,7 @@
         <v>1440695</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -926,7 +926,7 @@
         <v>745093</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -950,7 +950,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -974,7 +974,7 @@
         <v>16063</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -998,7 +998,7 @@
         <v>154629</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>26</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>28</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>30</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>31</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>32</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>2504200</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>33</v>
       </c>
@@ -1272,7 +1272,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>16</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>17</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>18</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
         <v>34</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>19</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>160787</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>21</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
         <v>35</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>162953</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="18" t="s">
         <v>36</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
         <v>37</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>38</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>40</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>41</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>2667153</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1550,7 +1550,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1560,7 +1560,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1570,7 +1570,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>42</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1602,7 +1602,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>43</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>11</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>335748</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>14</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>25282543</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>15</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>3311463</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>16</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>3752515</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>17</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>28775106</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>18</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>7483144</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>19</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>357659715</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>20</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>14566</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>21</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>244472</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>22</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>23</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>24</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>25</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>26</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>28</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>30</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>31</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
         <v>32</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>426859272</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>45</v>
       </c>
@@ -2056,7 +2056,7 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>16</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>5866</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>17</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>18</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>34</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>19</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>377450980</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>21</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>5151483</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="16" t="s">
         <v>35</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>382608329</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="18" t="s">
         <v>46</v>
       </c>
@@ -2234,7 +2234,7 @@
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="16" t="s">
         <v>37</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="14" t="s">
         <v>38</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="16" t="s">
         <v>40</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="14" t="s">
         <v>41</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>809467601</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2336,7 +2336,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2346,7 +2346,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2356,7 +2356,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>47</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2388,7 +2388,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>48</v>
       </c>
@@ -2400,7 +2400,7 @@
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>11</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>2388475</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>14</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>4062757995</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>15</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>2298518</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>16</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>5036304</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>17</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>35134439560</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>18</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>465862168</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>19</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>2313018354</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>20</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>217402985</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>21</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>5962731707</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>22</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>23</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>24</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>25</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>26</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>28</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>30</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>31</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>52</v>
       </c>
@@ -2820,7 +2820,7 @@
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>16</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>5919273</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>17</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>18</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>34</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>19</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>2347521752</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>21</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>4384240851</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2974,7 +2974,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2984,7 +2984,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2994,7 +2994,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
         <v>53</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3026,7 +3026,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>54</v>
       </c>
@@ -3038,7 +3038,7 @@
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>11</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="12" t="s">
         <v>14</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>-3768968</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>15</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>-2441249</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="12" t="s">
         <v>16</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>-3096759</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>17</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>-900711</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="12" t="s">
         <v>18</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>-2286065</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>19</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>-126637426</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="12" t="s">
         <v>20</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>-27550</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>21</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>-47434</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="12" t="s">
         <v>22</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>23</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="12" t="s">
         <v>24</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>25</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="12" t="s">
         <v>26</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>28</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="12" t="s">
         <v>30</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>31</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="14" t="s">
         <v>55</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>-139206162</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>56</v>
       </c>
@@ -3480,7 +3480,7 @@
       <c r="H133" s="9"/>
       <c r="I133" s="9"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>16</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>-4120</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="12" t="s">
         <v>17</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>18</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="12" t="s">
         <v>34</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>19</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>-132729697</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="12" t="s">
         <v>21</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>-1359398</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="16" t="s">
         <v>57</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>-134093215</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="18" t="s">
         <v>58</v>
       </c>
@@ -3658,7 +3658,7 @@
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="16" t="s">
         <v>59</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="14" t="s">
         <v>38</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="16" t="s">
         <v>40</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="14" t="s">
         <v>41</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>-273299377</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3760,7 +3760,7 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3770,7 +3770,7 @@
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3780,7 +3780,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B149" s="7" t="s">
         <v>60</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3812,7 +3812,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>61</v>
       </c>
@@ -3824,7 +3824,7 @@
       <c r="H151" s="9"/>
       <c r="I151" s="9"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>11</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>335748</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="12" t="s">
         <v>14</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>21513575</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>15</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>870214</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="12" t="s">
         <v>16</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>655756</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>17</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>27874395</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="12" t="s">
         <v>18</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>5197079</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>19</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>231022289</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="12" t="s">
         <v>20</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>-12984</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>21</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>197038</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="12" t="s">
         <v>22</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>23</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="12" t="s">
         <v>24</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>25</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="12" t="s">
         <v>26</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>28</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="12" t="s">
         <v>30</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>31</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="14" t="s">
         <v>62</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>287653110</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="8" t="s">
         <v>63</v>
       </c>
@@ -4266,7 +4266,7 @@
       <c r="H170" s="9"/>
       <c r="I170" s="9"/>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="10" t="s">
         <v>16</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="12" t="s">
         <v>17</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="10" t="s">
         <v>18</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="12" t="s">
         <v>34</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="10" t="s">
         <v>19</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>244721283</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="12" t="s">
         <v>21</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>3792085</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="16" t="s">
         <v>64</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>248515114</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="18" t="s">
         <v>65</v>
       </c>
@@ -4444,7 +4444,7 @@
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="16" t="s">
         <v>66</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="14" t="s">
         <v>41</v>
       </c>
